--- a/src/main/resources/templates/oos_report_template.xlsx
+++ b/src/main/resources/templates/oos_report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kienl\Development\NeXT\nexts-gs-mars-field-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92402ABB-7A91-4296-87EB-88E7BF77CCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC8F0A-DA23-485B-B6E7-B4DCD9B6596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,17 +222,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -240,8 +243,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,102 +528,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
     <col min="4" max="6" width="14.6328125" customWidth="1"/>
     <col min="7" max="7" width="18.08984375" customWidth="1"/>
     <col min="8" max="8" width="11.7265625" customWidth="1"/>
     <col min="9" max="9" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
